--- a/proc_notes_ERP.xlsx
+++ b/proc_notes_ERP.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiljohansen/Documents/Laosdirg/Roskilde/roskilde-eeg-pipeline/scripts_ERP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiljohansen/Documents/Laosdirg/Roskilde/roskilde-eeg-pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17389C0C-548B-424F-8AE0-3F97D6C2040E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="27760" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +563,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
